--- a/Excel/trading.xlsx
+++ b/Excel/trading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\BD6\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugo/Desktop/school-uni-bd6/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2775461F-9069-41E4-9DE0-C47056C98F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD1B2C-845E-2F47-B1BE-B6AE5E48C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{531C44C2-F4F9-45B6-A72B-4D17B6775245}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="9560" xr2:uid="{531C44C2-F4F9-45B6-A72B-4D17B6775245}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>cargo_id</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>bought</t>
+  </si>
+  <si>
+    <t>port3</t>
+  </si>
+  <si>
+    <t>Danemark-Norvege</t>
+  </si>
+  <si>
+    <t>Dynastie Qing</t>
+  </si>
+  <si>
+    <t>port4</t>
+  </si>
+  <si>
+    <t>Empire moghol</t>
+  </si>
+  <si>
+    <t>port2</t>
+  </si>
+  <si>
+    <t>port1</t>
+  </si>
+  <si>
+    <t>Royaume du Kongo</t>
   </si>
 </sst>
 </file>
@@ -404,15 +428,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4D3C1B-B9FB-4054-A701-3DECBDA62A59}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,6 +457,146 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
